--- a/wwwroot/Uploads/DegreeProgressPlan.xlsx
+++ b/wwwroot/Uploads/DegreeProgressPlan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\y4t2\GP2\DataForTest\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{196A8873-8C99-410D-A9F3-66D03758931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D75BEDC-6269-4953-9D77-43F32CB83118}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +50,7 @@
     <t>Major</t>
   </si>
   <si>
-    <t>2020/2021</t>
+    <t>2020-2021</t>
   </si>
   <si>
     <t>IT</t>
@@ -58,7 +59,7 @@
     <t>SE</t>
   </si>
   <si>
-    <t>2020/2022</t>
+    <t>2020-2022</t>
   </si>
   <si>
     <t>CS</t>
@@ -67,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,21 +445,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE03C44-CC6B-4F44-BD6B-70ACDC459761}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -486,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -499,30 +495,6 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
